--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_486__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_486__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5423,16 +5423,16 @@
                   <c:v>93.54141235351562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.86451721191406</c:v>
+                  <c:v>96.864501953125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.40989303588867</c:v>
+                  <c:v>56.40990447998047</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>35.81344985961914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.89748382568359</c:v>
+                  <c:v>54.89747619628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.35769653320312</c:v>
@@ -5450,13 +5450,13 @@
                   <c:v>48.18928146362305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.01622009277344</c:v>
+                  <c:v>97.0162353515625</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>89.81851196289062</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78.62754821777344</c:v>
+                  <c:v>78.62753295898438</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>39.11287307739258</c:v>
@@ -5465,7 +5465,7 @@
                   <c:v>73.49533081054688</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>71.23765563964844</c:v>
+                  <c:v>71.23766326904297</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18.07217788696289</c:v>
@@ -5477,7 +5477,7 @@
                   <c:v>79.8028564453125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55.7647819519043</c:v>
+                  <c:v>55.76478958129883</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>62.82016372680664</c:v>
@@ -5486,10 +5486,10 @@
                   <c:v>60.67392730712891</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.21067810058594</c:v>
+                  <c:v>90.210693359375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96.93220520019531</c:v>
+                  <c:v>96.93218994140625</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>94.5811767578125</c:v>
@@ -5507,10 +5507,10 @@
                   <c:v>98.04598999023438</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.38177108764648</c:v>
+                  <c:v>53.38177490234375</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>80.78895568847656</c:v>
+                  <c:v>80.7889404296875</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>97.20140075683594</c:v>
@@ -5519,19 +5519,19 @@
                   <c:v>85.75265502929688</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>84.26756286621094</c:v>
+                  <c:v>84.267578125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39.64829254150391</c:v>
+                  <c:v>39.64830017089844</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>89.968017578125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.83830261230469</c:v>
+                  <c:v>96.83831787109375</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>56.7624626159668</c:v>
+                  <c:v>56.76245880126953</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>94.38174438476562</c:v>
@@ -5540,7 +5540,7 @@
                   <c:v>37.90018844604492</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.49177551269531</c:v>
+                  <c:v>86.49176025390625</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>81.8699951171875</c:v>
@@ -5561,7 +5561,7 @@
                   <c:v>97.24884033203125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>96.97573852539062</c:v>
+                  <c:v>96.97575378417969</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>82.64033508300781</c:v>
@@ -5570,7 +5570,7 @@
                   <c:v>85.50401306152344</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>97.27850341796875</c:v>
+                  <c:v>97.27851867675781</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>74.85178375244141</c:v>
@@ -5588,19 +5588,19 @@
                   <c:v>78.40847778320312</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51.97897338867188</c:v>
+                  <c:v>51.97896957397461</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>97.20793151855469</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>47.36574554443359</c:v>
+                  <c:v>47.36574935913086</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>84.66117858886719</c:v>
+                  <c:v>84.66116333007812</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>97.87152099609375</c:v>
+                  <c:v>97.87153625488281</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>96.27302551269531</c:v>
@@ -5618,7 +5618,7 @@
                   <c:v>86.57603454589844</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>97.35023498535156</c:v>
+                  <c:v>97.35025024414062</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>62.50177764892578</c:v>
@@ -5627,7 +5627,7 @@
                   <c:v>82.79777526855469</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>68.04225158691406</c:v>
+                  <c:v>68.042236328125</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>81.45425415039062</c:v>
@@ -5645,7 +5645,7 @@
                   <c:v>64.37371826171875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>85.44903564453125</c:v>
+                  <c:v>85.44905090332031</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>57.965087890625</c:v>
@@ -5660,7 +5660,7 @@
                   <c:v>53.80673980712891</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97.56706237792969</c:v>
+                  <c:v>97.56704711914062</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>97.64768981933594</c:v>
@@ -5684,7 +5684,7 @@
                   <c:v>81.24089050292969</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>61.10029983520508</c:v>
+                  <c:v>61.10029220581055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6443,7 +6443,7 @@
         <v>97.01439999999999</v>
       </c>
       <c r="F4">
-        <v>96.86451721191406</v>
+        <v>96.864501953125</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>56.40989303588867</v>
+        <v>56.40990447998047</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6539,7 +6539,7 @@
         <v>58.4074</v>
       </c>
       <c r="F7">
-        <v>54.89748382568359</v>
+        <v>54.89747619628906</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6671,7 +6671,7 @@
         <v>97.3323</v>
       </c>
       <c r="F13">
-        <v>97.01622009277344</v>
+        <v>97.0162353515625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>79.27419999999999</v>
       </c>
       <c r="F15">
-        <v>78.62754821777344</v>
+        <v>78.62753295898438</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>71.23765563964844</v>
+        <v>71.23766326904297</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>55.7647819519043</v>
+        <v>55.76478958129883</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F25">
-        <v>90.21067810058594</v>
+        <v>90.210693359375</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>96.85760000000001</v>
       </c>
       <c r="F26">
-        <v>96.93220520019531</v>
+        <v>96.93218994140625</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>53.38177108764648</v>
+        <v>53.38177490234375</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>80.55459999999999</v>
       </c>
       <c r="F33">
-        <v>80.78895568847656</v>
+        <v>80.7889404296875</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>83.9868</v>
       </c>
       <c r="F36">
-        <v>84.26756286621094</v>
+        <v>84.267578125</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>38.4808</v>
       </c>
       <c r="F37">
-        <v>39.64829254150391</v>
+        <v>39.64830017089844</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>96.83830261230469</v>
+        <v>96.83831787109375</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>58.3298</v>
       </c>
       <c r="F40">
-        <v>56.7624626159668</v>
+        <v>56.76245880126953</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>86.58159999999999</v>
       </c>
       <c r="F43">
-        <v>86.49177551269531</v>
+        <v>86.49176025390625</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>96.97573852539062</v>
+        <v>96.97575378417969</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>97.3824</v>
       </c>
       <c r="F53">
-        <v>97.27850341796875</v>
+        <v>97.27851867675781</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>51.97897338867188</v>
+        <v>51.97896957397461</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>46.5133</v>
       </c>
       <c r="F61">
-        <v>47.36574554443359</v>
+        <v>47.36574935913086</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>87.61150000000001</v>
       </c>
       <c r="F62">
-        <v>84.66117858886719</v>
+        <v>84.66116333007812</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>98.0121</v>
       </c>
       <c r="F63">
-        <v>97.87152099609375</v>
+        <v>97.87153625488281</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>97.4348</v>
       </c>
       <c r="F69">
-        <v>97.35023498535156</v>
+        <v>97.35025024414062</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>67.25879999999999</v>
       </c>
       <c r="F72">
-        <v>68.04225158691406</v>
+        <v>68.042236328125</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F78">
-        <v>85.44903564453125</v>
+        <v>85.44905090332031</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>97.51990000000001</v>
       </c>
       <c r="F83">
-        <v>97.56706237792969</v>
+        <v>97.56704711914062</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>64.253</v>
       </c>
       <c r="F91">
-        <v>61.10029983520508</v>
+        <v>61.10029220581055</v>
       </c>
     </row>
     <row r="92" spans="1:6">
